--- a/docs/회계장부.xlsx
+++ b/docs/회계장부.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27bc792911f3bb94/바탕 화면/3학년 2학기멀티미디어공학과 전공/캡스톤/회계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27bc792911f3bb94/바탕 화면/git_osproject/osproject/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E3B1C059-63ED-48BF-BC39-89977011036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37346673-5FF9-47C6-B2A5-75F9B046A056}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E3B1C059-63ED-48BF-BC39-89977011036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE59736-D1D2-47B7-B062-259C47D81499}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D920581D-D9C5-4B59-838F-AB4EC2BD7671}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>날짜</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>2022/11/23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥지 감자탕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792F771A-75BE-494E-91DE-9BA18AC26C7F}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -655,6 +663,24 @@
         <v>346900</v>
       </c>
     </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F8" s="3">
+        <f>F7-E8</f>
+        <v>310900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/회계장부.xlsx
+++ b/docs/회계장부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27bc792911f3bb94/바탕 화면/git_osproject/osproject/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E3B1C059-63ED-48BF-BC39-89977011036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE59736-D1D2-47B7-B062-259C47D81499}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E3B1C059-63ED-48BF-BC39-89977011036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D76DD472-E5E3-4F0E-93B9-9E722F834285}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D920581D-D9C5-4B59-838F-AB4EC2BD7671}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>날짜</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>둥지 감자탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,900</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -236,6 +240,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -539,7 +547,7 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -597,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
@@ -609,7 +617,7 @@
         <v>467500</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -626,8 +634,11 @@
         <f>F4-E5</f>
         <v>427100</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -643,6 +654,9 @@
       <c r="F6" s="3">
         <f>F5-E6</f>
         <v>387100</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
